--- a/BuzzerBeater/src/main/java/資料庫表格/DEMO資料.xlsx
+++ b/BuzzerBeater/src/main/java/資料庫表格/DEMO資料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -128,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,12 +375,12 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
